--- a/Encoded Sample - OK.xlsx
+++ b/Encoded Sample - OK.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
   <si>
     <t>N°</t>
   </si>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>CM</t>
   </si>
 </sst>
 </file>
@@ -607,11 +619,11 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="G5">
-        <v>4.3</v>
-      </c>
-      <c r="H5">
-        <v>4.3</v>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -671,11 +683,11 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="G7">
-        <v>10.7</v>
-      </c>
-      <c r="H7">
-        <v>10.7</v>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
@@ -703,11 +715,11 @@
       <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="G8">
-        <v>7.3</v>
-      </c>
-      <c r="H8">
-        <v>7.3</v>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -767,11 +779,11 @@
       <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="G10">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="H10">
-        <v>9.3000000000000007</v>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
